--- a/人事/人员信息录入表(1).xlsx
+++ b/人事/人员信息录入表(1).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,70 @@
   </si>
   <si>
     <t>季灯高</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯磊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110222199512011412</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1995.12</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市顺义区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.3.19</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>安卓开发工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨福鹏</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>142625199801160412</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1998.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西省洪洞县</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>专科</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前端工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214830184604261</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -798,10 +862,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -810,7 +874,7 @@
     <col min="3" max="3" width="10.875" style="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
+    <col min="7" max="7" width="14.25" customWidth="1"/>
     <col min="9" max="9" width="20.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1164,6 +1228,64 @@
       </c>
       <c r="J11" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/人事/人员信息录入表(1).xlsx
+++ b/人事/人员信息录入表(1).xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="20730" windowHeight="11730" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="115">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,6 +412,70 @@
   </si>
   <si>
     <t>是</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>侯磊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214830186125828</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔丽娟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110222199401102223</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市顺义区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.3.26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214830186018031</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1994.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔树杰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>130729199707273717</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1997.7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省张家口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>java开发</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -862,10 +926,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1252,6 +1316,12 @@
       <c r="G12" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="H12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="J12" s="1" t="s">
         <v>98</v>
       </c>
@@ -1286,6 +1356,64 @@
       </c>
       <c r="J13" s="1" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>

--- a/人事/人员信息录入表(1).xlsx
+++ b/人事/人员信息录入表(1).xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="139">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,43 +411,83 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>侯磊</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214830186125828</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔丽娟</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>110222199401102223</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京市顺义区</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>本科</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.3.26</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件测试</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214830186018031</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>是</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>侯磊</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6214830186125828</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔丽娟</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>110222199401102223</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京市顺义区</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>本科</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018.3.26</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件测试</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>6214830186018031</t>
+    <t>1994.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔树杰</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>130729199707273717</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1997.7</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省张家口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>java开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>离职时间</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.3.29</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214830186077342</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -455,27 +495,83 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1994.1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>乔树杰</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>130729199707273717</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1997.7</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>河北省张家口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>java开发</t>
+    <t>邮箱</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>houlei@yddoo.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>libch@yddoo.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lengjx@yddoo.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jidg@yddoo.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xiaotian@yddoo.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiaoshujie@yddoo.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangyj@yddoo.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>qiaolijuan@yddoo.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xuym@yddoo.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>fengyu@yddoo.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>18801234351@163.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>何陆超</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>41042119940215301X</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1994.2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北省宝丰县</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018.4.8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>前段工程师</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>heluchao@yddoo.com</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>6214830173817221</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -483,7 +579,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -530,6 +629,20 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -548,7 +661,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -570,12 +683,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" applyNumberFormat="0"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="17"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="18" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="20">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 13" xfId="10"/>
     <cellStyle name="常规 2" xfId="5"/>
@@ -586,6 +706,9 @@
     <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8"/>
+    <cellStyle name="样式 1" xfId="18"/>
+    <cellStyle name="样式 2" xfId="19"/>
     <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="已访问的超链接" xfId="7" builtinId="9" hidden="1"/>
@@ -926,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -940,9 +1063,10 @@
     <col min="6" max="6" width="15.875" customWidth="1"/>
     <col min="7" max="7" width="14.25" customWidth="1"/>
     <col min="9" max="9" width="20.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -973,8 +1097,14 @@
       <c r="J1" t="s">
         <v>15</v>
       </c>
+      <c r="K1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" t="s">
+        <v>119</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -990,7 +1120,7 @@
       <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
@@ -1006,7 +1136,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1022,7 +1152,7 @@
       <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G3" t="s">
@@ -1038,7 +1168,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -1054,7 +1184,7 @@
       <c r="E4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
         <v>30</v>
       </c>
       <c r="G4" t="s">
@@ -1070,7 +1200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>29</v>
       </c>
@@ -1086,7 +1216,7 @@
       <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="4" t="s">
         <v>36</v>
       </c>
       <c r="G5" t="s">
@@ -1101,8 +1231,11 @@
       <c r="J5" t="s">
         <v>46</v>
       </c>
+      <c r="L5" s="2" t="s">
+        <v>124</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1118,7 +1251,7 @@
       <c r="E6" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="4" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="1" t="s">
@@ -1133,8 +1266,11 @@
       <c r="J6" t="s">
         <v>16</v>
       </c>
+      <c r="L6" s="2" t="s">
+        <v>122</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>41</v>
       </c>
@@ -1150,7 +1286,7 @@
       <c r="E7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="4" t="s">
         <v>61</v>
       </c>
       <c r="G7" s="1" t="s">
@@ -1165,8 +1301,11 @@
       <c r="J7" t="s">
         <v>46</v>
       </c>
+      <c r="L7" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -1182,7 +1321,7 @@
       <c r="E8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="4" t="s">
         <v>63</v>
       </c>
       <c r="G8" s="1" t="s">
@@ -1197,8 +1336,11 @@
       <c r="J8" t="s">
         <v>16</v>
       </c>
+      <c r="L8" s="2" t="s">
+        <v>123</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
@@ -1214,7 +1356,7 @@
       <c r="E9" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1229,8 +1371,11 @@
       <c r="J9" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="L9" s="2" t="s">
+        <v>129</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
@@ -1246,7 +1391,7 @@
       <c r="E10" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -1261,8 +1406,11 @@
       <c r="J10" s="1" t="s">
         <v>74</v>
       </c>
+      <c r="L10" s="2" t="s">
+        <v>121</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>75</v>
       </c>
@@ -1278,7 +1426,7 @@
       <c r="E11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>77</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -1293,8 +1441,11 @@
       <c r="J11" t="s">
         <v>74</v>
       </c>
+      <c r="L11" s="2" t="s">
+        <v>128</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>83</v>
       </c>
@@ -1310,23 +1461,26 @@
       <c r="E12" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>88</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="H12" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>90</v>
       </c>
@@ -1342,7 +1496,7 @@
       <c r="E13" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>88</v>
       </c>
       <c r="G13" s="1" t="s">
@@ -1355,71 +1509,146 @@
         <v>96</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" s="3">
+        <v>18801234351</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>108</v>
+      <c r="G15" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>110</v>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="13:13" x14ac:dyDescent="0.15">
+      <c r="M24" s="3">
+        <v>18801234351</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="L12" r:id="rId1"/>
+    <hyperlink ref="L10" r:id="rId2"/>
+    <hyperlink ref="L6" r:id="rId3"/>
+    <hyperlink ref="L8" r:id="rId4"/>
+    <hyperlink ref="L5" r:id="rId5"/>
+    <hyperlink ref="L15" r:id="rId6"/>
+    <hyperlink ref="L7" r:id="rId7"/>
+    <hyperlink ref="L14" r:id="rId8"/>
+    <hyperlink ref="L11" r:id="rId9"/>
+    <hyperlink ref="L9" r:id="rId10"/>
+    <hyperlink ref="L13" r:id="rId11"/>
+    <hyperlink ref="L16" r:id="rId12"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId13"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
